--- a/Datasets/Average Retail Prices September 2004.xlsx
+++ b/Datasets/Average Retail Prices September 2004.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\layma\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcu\OneDrive\Desktop\FIT3164\Project Files\fit3164_ds16\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C305ABD-807C-467F-B98D-A3725EF8748B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B7B688-009F-4485-A79F-ECAA2E7E4A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11190" yWindow="0" windowWidth="11460" windowHeight="14410" xr2:uid="{0BB5D1C3-196E-4B6B-8354-3EDA9143F1A0}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{0BB5D1C3-196E-4B6B-8354-3EDA9143F1A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,44 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
-  <si>
-    <t>Sydney</t>
-  </si>
-  <si>
-    <t>Melbourne</t>
-  </si>
-  <si>
-    <t>Brisbane</t>
-  </si>
-  <si>
-    <t>Adelaide</t>
-  </si>
-  <si>
-    <t>Hobart</t>
-  </si>
-  <si>
-    <t>Darwin</t>
-  </si>
-  <si>
-    <t>Canberra</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Laundry detergent</t>
   </si>
@@ -74,9 +42,6 @@
     <t>Pet food</t>
   </si>
   <si>
-    <t>Perth</t>
-  </si>
-  <si>
     <t>Milk</t>
   </si>
   <si>
@@ -183,6 +148,33 @@
   </si>
   <si>
     <t>Toilet soap</t>
+  </si>
+  <si>
+    <t>Item (Unit)</t>
+  </si>
+  <si>
+    <t>Sydney (cents)</t>
+  </si>
+  <si>
+    <t>Melbourne (cents)</t>
+  </si>
+  <si>
+    <t>Brisbane (cents)</t>
+  </si>
+  <si>
+    <t>Adelaide (cents)</t>
+  </si>
+  <si>
+    <t>Perth (cents)</t>
+  </si>
+  <si>
+    <t>Hobart (cents)</t>
+  </si>
+  <si>
+    <t>Darwin (cents)</t>
+  </si>
+  <si>
+    <t>Canberra (cents)</t>
   </si>
 </sst>
 </file>
@@ -537,45 +529,49 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.08984375" customWidth="1"/>
-    <col min="3" max="3" width="20.81640625" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="H1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>13</v>
       </c>
       <c r="B2">
         <v>256</v>
@@ -602,9 +598,9 @@
         <v>241</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>425</v>
@@ -631,9 +627,9 @@
         <v>418</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>266</v>
@@ -660,9 +656,9 @@
         <v>254</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>246</v>
@@ -689,9 +685,9 @@
         <v>243</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>180</v>
@@ -718,9 +714,9 @@
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>336</v>
@@ -747,9 +743,9 @@
         <v>319</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>341</v>
@@ -776,9 +772,9 @@
         <v>399</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>185</v>
@@ -805,9 +801,9 @@
         <v>195</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>1013</v>
@@ -834,9 +830,9 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>965</v>
@@ -863,9 +859,9 @@
         <v>984</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>1083</v>
@@ -892,9 +888,9 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>392</v>
@@ -921,9 +917,9 @@
         <v>405</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>401</v>
@@ -950,9 +946,9 @@
         <v>419</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B15">
         <v>489</v>
@@ -979,9 +975,9 @@
         <v>504</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B16">
         <v>240</v>
@@ -1008,9 +1004,9 @@
         <v>279</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>230</v>
@@ -1037,9 +1033,9 @@
         <v>233</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>242</v>
@@ -1066,9 +1062,9 @@
         <v>236</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>137</v>
@@ -1095,9 +1091,9 @@
         <v>204</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B20">
         <v>285</v>
@@ -1124,9 +1120,9 @@
         <v>269</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B21">
         <v>214</v>
@@ -1153,9 +1149,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B22">
         <v>227</v>
@@ -1182,9 +1178,9 @@
         <v>231</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B23">
         <v>238</v>
@@ -1211,9 +1207,9 @@
         <v>260</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B24">
         <v>146</v>
@@ -1240,9 +1236,9 @@
         <v>146</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B25">
         <v>149</v>
@@ -1269,9 +1265,9 @@
         <v>163</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B26">
         <v>327</v>
@@ -1298,9 +1294,9 @@
         <v>338</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>307</v>
@@ -1327,9 +1323,9 @@
         <v>328</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B28">
         <v>203</v>
@@ -1356,9 +1352,9 @@
         <v>213</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B29">
         <v>256</v>
@@ -1385,9 +1381,9 @@
         <v>288</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B30">
         <v>335</v>
@@ -1414,9 +1410,9 @@
         <v>355</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B31">
         <v>609</v>
@@ -1443,9 +1439,9 @@
         <v>582</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B32">
         <v>168</v>
@@ -1472,9 +1468,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B33">
         <v>239</v>
@@ -1501,9 +1497,9 @@
         <v>250</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B34">
         <v>75</v>
@@ -1530,9 +1526,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B35">
         <v>522</v>
@@ -1559,9 +1555,9 @@
         <v>553</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B36">
         <v>347</v>
@@ -1588,9 +1584,9 @@
         <v>338</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B37">
         <v>205</v>
@@ -1617,9 +1613,9 @@
         <v>214</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B38">
         <v>290</v>
@@ -1646,9 +1642,9 @@
         <v>311</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B39">
         <v>101</v>
@@ -1675,9 +1671,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>102.1</v>
@@ -1704,9 +1700,9 @@
         <v>102.9</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>230</v>
@@ -1733,9 +1729,9 @@
         <v>225</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>247</v>
